--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFABE6E-1A80-48B2-91AA-ABFA478A4BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F600E-2307-42BE-AA50-E2D5A321F5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="216">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,334 @@
   </si>
   <si>
     <t>고요, 평온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extermination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annihilation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eradication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절멸, 전멸, 소멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melancholy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dejection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagnation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울, 불경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율, 효능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wariness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vigilance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prudence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antidote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quandary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결책, 곤경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detriment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfigurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mischief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해, 손상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상, 소중한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accolade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intricacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어지다, 습격하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습격하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put in for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stipulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청하다, 요구하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소중한 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,15 +1218,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,6 +2712,860 @@
       </c>
       <c r="D106" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" t="s">
+        <v>69</v>
+      </c>
+      <c r="D124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>171</v>
+      </c>
+      <c r="C135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" t="s">
+        <v>215</v>
+      </c>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>140</v>
+      </c>
+      <c r="D146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" t="s">
+        <v>201</v>
+      </c>
+      <c r="C150" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>202</v>
+      </c>
+      <c r="C151" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>204</v>
+      </c>
+      <c r="B158" t="s">
+        <v>214</v>
+      </c>
+      <c r="C158" t="s">
+        <v>140</v>
+      </c>
+      <c r="D158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>206</v>
+      </c>
+      <c r="B160" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>207</v>
+      </c>
+      <c r="B161" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" t="s">
+        <v>214</v>
+      </c>
+      <c r="C162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B163" t="s">
+        <v>214</v>
+      </c>
+      <c r="C163" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>210</v>
+      </c>
+      <c r="B164" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" t="s">
+        <v>214</v>
+      </c>
+      <c r="C165" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>212</v>
+      </c>
+      <c r="B166" t="s">
+        <v>214</v>
+      </c>
+      <c r="C166" t="s">
+        <v>69</v>
+      </c>
+      <c r="D166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>213</v>
+      </c>
+      <c r="B167" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F600E-2307-42BE-AA50-E2D5A321F5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="208">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,26 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해결책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곤경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불경기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>treasure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,14 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>떨어지다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>습격하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>call for</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,14 +854,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소중한 것</t>
+    <t>질문2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1217,22 +1184,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1243,8 +1211,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1228,12 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>IF(C2="기출",CONCATENATE(A2,"*"),A2)</f>
+        <v>in conjunction with*</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1271,8 +1246,12 @@
       <c r="D3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(C3="기출",CONCATENATE(A3,"*"),A3)</f>
+        <v>in combination with*</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1285,8 +1264,12 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>in company with</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1299,8 +1282,12 @@
       <c r="D5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>together with</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1313,8 +1300,12 @@
       <c r="D6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>alongside</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1327,8 +1318,12 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>along with</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1336,12 @@
       <c r="D8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>in comparison with*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1355,8 +1354,12 @@
       <c r="D9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>(as) compared with[to]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1369,8 +1372,12 @@
       <c r="D10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>as against</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1383,8 +1390,12 @@
       <c r="D11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>by[in] contrast</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1397,8 +1408,12 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>in place of*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1411,8 +1426,12 @@
       <c r="D13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>instead (of)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1425,8 +1444,12 @@
       <c r="D14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>on behalf of</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1439,8 +1462,12 @@
       <c r="D15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>in substitute for</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1453,8 +1480,12 @@
       <c r="D16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>in lieu of</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1467,8 +1498,12 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>in case of*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1481,8 +1516,12 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>in the event of</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1495,8 +1534,12 @@
       <c r="D19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>on the occasion (of)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1509,8 +1552,12 @@
       <c r="D20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>in time (of)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1523,8 +1570,12 @@
       <c r="D21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>pervasive*</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1537,8 +1588,12 @@
       <c r="D22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>ubiquitous*</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1551,8 +1606,12 @@
       <c r="D23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>prevalent*</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1565,8 +1624,12 @@
       <c r="D24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>omnipresent</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1579,8 +1642,12 @@
       <c r="D25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>immanent</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1593,8 +1660,12 @@
       <c r="D26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>current</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1607,8 +1678,12 @@
       <c r="D27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>prevailing</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1621,8 +1696,12 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>rife</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1635,8 +1714,12 @@
       <c r="D29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>deceptive*</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1732,12 @@
       <c r="D30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>deceitful</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1663,8 +1750,12 @@
       <c r="D31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>delusive</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1677,8 +1768,12 @@
       <c r="D32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>devious</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1691,8 +1786,12 @@
       <c r="D33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>fraudulent</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1705,8 +1804,12 @@
       <c r="D34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>persuasive*</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1719,8 +1822,12 @@
       <c r="D35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>convincing</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1733,8 +1840,12 @@
       <c r="D36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>compelling</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1747,8 +1858,12 @@
       <c r="D37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>cogent</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1761,8 +1876,12 @@
       <c r="D38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>disastrous*</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1775,8 +1894,12 @@
       <c r="D39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>tragic</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1789,8 +1912,12 @@
       <c r="D40" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>miserable</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1803,8 +1930,12 @@
       <c r="D41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>deplorable</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1817,8 +1948,12 @@
       <c r="D42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>calamitous</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1831,8 +1966,12 @@
       <c r="D43" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>catastrophic</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1845,8 +1984,12 @@
       <c r="D44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>vex*</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1859,8 +2002,12 @@
       <c r="D45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>annoy*</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1873,8 +2020,12 @@
       <c r="D46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>infuriate</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1887,8 +2038,12 @@
       <c r="D47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>displease</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1901,8 +2056,12 @@
       <c r="D48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>exasperate</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1915,8 +2074,12 @@
       <c r="D49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>callous*</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1929,8 +2092,12 @@
       <c r="D50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>cruel</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1943,8 +2110,12 @@
       <c r="D51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>pitiless</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1957,8 +2128,12 @@
       <c r="D52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>ruthless</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1971,8 +2146,12 @@
       <c r="D53" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>uncharitable</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1985,8 +2164,12 @@
       <c r="D54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>inexorable</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1999,8 +2182,12 @@
       <c r="D55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>relentless</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2013,8 +2200,12 @@
       <c r="D56" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>merciless</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2027,8 +2218,12 @@
       <c r="D57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>reputable*</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2041,8 +2236,12 @@
       <c r="D58" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>prestigious*</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2055,8 +2254,12 @@
       <c r="D59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>creditable</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2069,8 +2272,12 @@
       <c r="D60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>respectable</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2083,8 +2290,12 @@
       <c r="D61" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>venerable</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2097,8 +2308,12 @@
       <c r="D62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>confident*</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2111,8 +2326,12 @@
       <c r="D63" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>assured</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -2125,8 +2344,12 @@
       <c r="D64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>assertive</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -2139,8 +2362,12 @@
       <c r="D65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>sanguine</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -2153,8 +2380,12 @@
       <c r="D66" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>buoyant</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -2167,8 +2398,12 @@
       <c r="D67" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="1">IF(C67="기출",CONCATENATE(A67,"*"),A67)</f>
+        <v>line up*</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -2181,8 +2416,12 @@
       <c r="D68" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>arrange</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -2195,8 +2434,12 @@
       <c r="D69" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>array</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2209,8 +2452,12 @@
       <c r="D70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>sequence</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -2223,8 +2470,12 @@
       <c r="D71" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>align</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -2237,8 +2488,12 @@
       <c r="D72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>give out*</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -2251,8 +2506,12 @@
       <c r="D73" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>hand out</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -2265,8 +2524,12 @@
       <c r="D74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>give away</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -2279,8 +2542,12 @@
       <c r="D75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>deal out</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -2293,8 +2560,12 @@
       <c r="D76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>serve out</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2307,8 +2578,12 @@
       <c r="D77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>carry on*</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -2321,8 +2596,12 @@
       <c r="D78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>keep on</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -2335,8 +2614,12 @@
       <c r="D79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>go on</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -2349,8 +2632,12 @@
       <c r="D80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>stick at</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -2363,8 +2650,12 @@
       <c r="D81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>continue</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -2377,8 +2668,12 @@
       <c r="D82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>break out*</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -2391,8 +2686,12 @@
       <c r="D83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>burst into</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -2405,8 +2704,12 @@
       <c r="D84" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>rush into</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -2419,8 +2722,12 @@
       <c r="D85" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>invade</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -2433,8 +2740,12 @@
       <c r="D86" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>trespass</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -2447,8 +2758,12 @@
       <c r="D87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>gratification*</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -2461,8 +2776,12 @@
       <c r="D88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>satisfaction*</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -2475,8 +2794,12 @@
       <c r="D89" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>contentment</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -2489,8 +2812,12 @@
       <c r="D90" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>euphoria</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2503,8 +2830,12 @@
       <c r="D91" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>delight</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -2517,8 +2848,12 @@
       <c r="D92" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>liveliness*</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2531,8 +2866,12 @@
       <c r="D93" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>spring</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2545,8 +2884,12 @@
       <c r="D94" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>sparkle</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -2559,8 +2902,12 @@
       <c r="D95" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>vivacity</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -2573,8 +2920,12 @@
       <c r="D96" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>vigor</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -2587,8 +2938,12 @@
       <c r="D97" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>confidence*</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -2601,8 +2956,12 @@
       <c r="D98" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>faith</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -2615,8 +2974,12 @@
       <c r="D99" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>credence</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -2629,8 +2992,12 @@
       <c r="D100" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>reliance</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -2643,8 +3010,12 @@
       <c r="D101" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>conviction</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -2657,8 +3028,12 @@
       <c r="D102" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>tranquility*</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -2671,8 +3046,12 @@
       <c r="D103" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>silence</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -2685,8 +3064,12 @@
       <c r="D104" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>quiet</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -2699,8 +3082,12 @@
       <c r="D105" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>serenity</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -2713,8 +3100,12 @@
       <c r="D106" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>composure</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -2727,8 +3118,12 @@
       <c r="D107" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>extinction*</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>135</v>
       </c>
@@ -2741,8 +3136,12 @@
       <c r="D108" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>extermination</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -2755,8 +3154,12 @@
       <c r="D109" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>annihilation</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>137</v>
       </c>
@@ -2769,8 +3172,12 @@
       <c r="D110" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>eradication</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -2783,8 +3190,12 @@
       <c r="D111" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>disappearance*</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -2797,13 +3208,17 @@
       <c r="D112" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>depression*</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s">
         <v>69</v>
@@ -2811,13 +3226,17 @@
       <c r="D113" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>melancholy</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
         <v>69</v>
@@ -2825,13 +3244,17 @@
       <c r="D114" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>dejection</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
         <v>69</v>
@@ -2839,13 +3262,17 @@
       <c r="D115" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>recession</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
         <v>69</v>
@@ -2853,13 +3280,17 @@
       <c r="D116" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>slump</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
         <v>69</v>
@@ -2867,13 +3298,17 @@
       <c r="D117" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>stagnation</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C118" t="s">
         <v>69</v>
@@ -2881,8 +3316,12 @@
       <c r="D118" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>downturn</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>150</v>
       </c>
@@ -2895,13 +3334,17 @@
       <c r="D119" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>efficiency*</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
         <v>69</v>
@@ -2909,13 +3352,17 @@
       <c r="D120" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>efficacy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
         <v>69</v>
@@ -2923,8 +3370,12 @@
       <c r="D121" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>potency</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>154</v>
       </c>
@@ -2937,8 +3388,12 @@
       <c r="D122" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>caution*</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -2951,8 +3406,12 @@
       <c r="D123" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>wariness</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>156</v>
       </c>
@@ -2965,8 +3424,12 @@
       <c r="D124" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>heed</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -2979,8 +3442,12 @@
       <c r="D125" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>vigilance</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -2993,8 +3460,12 @@
       <c r="D126" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>prudence</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -3007,13 +3478,17 @@
       <c r="D127" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>fix*</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C128" t="s">
         <v>69</v>
@@ -3021,13 +3496,17 @@
       <c r="D128" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>solution</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C129" t="s">
         <v>69</v>
@@ -3035,13 +3514,17 @@
       <c r="D129" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>remedy</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
         <v>69</v>
@@ -3049,13 +3532,17 @@
       <c r="D130" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>antidote</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
         <v>69</v>
@@ -3063,13 +3550,17 @@
       <c r="D131" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="str">
+        <f t="shared" ref="E131:E167" si="2">IF(C131="기출",CONCATENATE(A131,"*"),A131)</f>
+        <v>answer</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
         <v>69</v>
@@ -3077,13 +3568,17 @@
       <c r="D132" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="str">
+        <f t="shared" si="2"/>
+        <v>predicament</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
         <v>69</v>
@@ -3091,13 +3586,17 @@
       <c r="D133" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>difficulty</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C134" t="s">
         <v>69</v>
@@ -3105,13 +3604,17 @@
       <c r="D134" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>plight</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
         <v>69</v>
@@ -3119,13 +3622,17 @@
       <c r="D135" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>quandary</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
         <v>175</v>
-      </c>
-      <c r="B136" t="s">
-        <v>180</v>
       </c>
       <c r="C136" t="s">
         <v>140</v>
@@ -3133,69 +3640,89 @@
       <c r="D136" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>damage*</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>garm</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>detriment</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>disfigurement</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>mischief</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>176</v>
       </c>
-      <c r="B137" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B141" t="s">
         <v>177</v>
-      </c>
-      <c r="B138" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" t="s">
-        <v>69</v>
-      </c>
-      <c r="D138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>179</v>
-      </c>
-      <c r="B140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141" t="s">
-        <v>182</v>
       </c>
       <c r="C141" t="s">
         <v>140</v>
@@ -3203,13 +3730,17 @@
       <c r="D141" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>prize*</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
         <v>69</v>
@@ -3217,13 +3748,17 @@
       <c r="D142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>award</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C143" t="s">
         <v>69</v>
@@ -3231,41 +3766,53 @@
       <c r="D143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>reward</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" t="s">
+        <v>141</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>treasure</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>accolade</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" t="s">
         <v>186</v>
-      </c>
-      <c r="B144" t="s">
-        <v>215</v>
-      </c>
-      <c r="C144" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>187</v>
-      </c>
-      <c r="B145" t="s">
-        <v>185</v>
-      </c>
-      <c r="C145" t="s">
-        <v>69</v>
-      </c>
-      <c r="D145" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>188</v>
-      </c>
-      <c r="B146" t="s">
-        <v>192</v>
       </c>
       <c r="C146" t="s">
         <v>140</v>
@@ -3273,13 +3820,17 @@
       <c r="D146" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>complication*</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C147" t="s">
         <v>69</v>
@@ -3287,13 +3838,17 @@
       <c r="D147" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>complexity</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
         <v>69</v>
@@ -3301,13 +3856,17 @@
       <c r="D148" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>intricacy</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B149" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C149" t="s">
         <v>69</v>
@@ -3315,13 +3874,17 @@
       <c r="D149" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>involution</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
         <v>140</v>
@@ -3329,111 +3892,143 @@
       <c r="D150" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>fall on*</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" t="s">
+        <v>141</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>fall from</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>come off</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C153" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" t="s">
+        <v>141</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>pitch</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>191</v>
+      </c>
+      <c r="B154" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" t="s">
+        <v>141</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>chop upon</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" t="s">
+        <v>195</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>141</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>193</v>
+      </c>
+      <c r="B156" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" t="s">
+        <v>141</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>assault</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>194</v>
       </c>
-      <c r="B151" t="s">
-        <v>202</v>
-      </c>
-      <c r="C151" t="s">
-        <v>69</v>
-      </c>
-      <c r="D151" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B157" t="s">
         <v>195</v>
       </c>
-      <c r="B152" t="s">
-        <v>202</v>
-      </c>
-      <c r="C152" t="s">
-        <v>69</v>
-      </c>
-      <c r="D152" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="C157" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" t="s">
+        <v>141</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>assail</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>196</v>
       </c>
-      <c r="B153" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" t="s">
-        <v>69</v>
-      </c>
-      <c r="D153" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>197</v>
-      </c>
-      <c r="B154" t="s">
-        <v>203</v>
-      </c>
-      <c r="C154" t="s">
-        <v>69</v>
-      </c>
-      <c r="D154" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>198</v>
-      </c>
-      <c r="B155" t="s">
-        <v>203</v>
-      </c>
-      <c r="C155" t="s">
-        <v>69</v>
-      </c>
-      <c r="D155" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>199</v>
-      </c>
-      <c r="B156" t="s">
-        <v>203</v>
-      </c>
-      <c r="C156" t="s">
-        <v>69</v>
-      </c>
-      <c r="D156" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>200</v>
-      </c>
-      <c r="B157" t="s">
-        <v>203</v>
-      </c>
-      <c r="C157" t="s">
-        <v>69</v>
-      </c>
-      <c r="D157" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>204</v>
-      </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s">
         <v>140</v>
@@ -3441,131 +4036,171 @@
       <c r="D158" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>call for*</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>141</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>call on</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>206</v>
+      </c>
+      <c r="C160" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" t="s">
+        <v>141</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>ask for</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>put in for</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>summon</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" t="s">
+        <v>141</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>necessitate</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" t="s">
+        <v>141</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>demand</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>stipulate</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>204</v>
+      </c>
+      <c r="B166" t="s">
+        <v>206</v>
+      </c>
+      <c r="C166" t="s">
+        <v>69</v>
+      </c>
+      <c r="D166" t="s">
+        <v>141</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>enjoin</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>205</v>
       </c>
-      <c r="B159" t="s">
-        <v>214</v>
-      </c>
-      <c r="C159" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B167" t="s">
         <v>206</v>
       </c>
-      <c r="B160" t="s">
-        <v>214</v>
-      </c>
-      <c r="C160" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>207</v>
-      </c>
-      <c r="B161" t="s">
-        <v>214</v>
-      </c>
-      <c r="C161" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>208</v>
-      </c>
-      <c r="B162" t="s">
-        <v>214</v>
-      </c>
-      <c r="C162" t="s">
-        <v>69</v>
-      </c>
-      <c r="D162" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>209</v>
-      </c>
-      <c r="B163" t="s">
-        <v>214</v>
-      </c>
-      <c r="C163" t="s">
-        <v>69</v>
-      </c>
-      <c r="D163" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>210</v>
-      </c>
-      <c r="B164" t="s">
-        <v>214</v>
-      </c>
-      <c r="C164" t="s">
-        <v>69</v>
-      </c>
-      <c r="D164" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>211</v>
-      </c>
-      <c r="B165" t="s">
-        <v>214</v>
-      </c>
-      <c r="C165" t="s">
-        <v>69</v>
-      </c>
-      <c r="D165" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>212</v>
-      </c>
-      <c r="B166" t="s">
-        <v>214</v>
-      </c>
-      <c r="C166" t="s">
-        <v>69</v>
-      </c>
-      <c r="D166" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>213</v>
-      </c>
-      <c r="B167" t="s">
-        <v>214</v>
-      </c>
       <c r="C167" t="s">
         <v>69</v>
       </c>
       <c r="D167" t="s">
         <v>141</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>require</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="337">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1119,258 @@
   </si>
   <si>
     <t>Day04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈에 띄는, 현저한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obedient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수동적인, 소극적인, 복종적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaporous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fanciful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기를 내는, 안개가 많은, 공상적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>risky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perilous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazardous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoroughly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhaustively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철저히, 철저하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the long run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국, 마침내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culturally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화적으로, 망설이면서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tentatively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provisionally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporarily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hesitantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lingeringly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠정적으로, 망설이면서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay tribute to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esteem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경의를 표하다, 존경하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,16 +1394,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1159,18 +1433,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1449,2524 +1760,3097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168:C228"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233:C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C228" t="s">
-        <v>273</v>
+      <c r="C228" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="399">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,254 @@
   </si>
   <si>
     <t>구성하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결하다, 가입하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanitary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hygienic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stainless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taintless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위생적인, 깨끗한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segregated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secluded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절연된, 격리된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recyclable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reusable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renewable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regenerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaimable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재활용할 수 있는, 재생가능한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterproof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water-resistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watertight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waxed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방수의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give rise to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유발하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌보다, 보살피다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take care of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>care for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remunerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recompense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indemnify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌보다, 보살피다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep in contact with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get[keep] in touch (with)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get hold of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1760,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233:C280"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281:C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4853,6 +5101,556 @@
         <v>280</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -690,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>garm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detriment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1619,6 +1615,10 @@
   </si>
   <si>
     <t>연락하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281:C330"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3511,7 +3511,7 @@
         <v>165</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>136</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>136</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>136</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>136</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>136</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>136</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>136</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>136</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>136</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>136</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>136</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>136</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>136</v>
@@ -3651,10 +3651,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>136</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>136</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>136</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>136</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>136</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>136</v>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>136</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>136</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>136</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>136</v>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>136</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>136</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>136</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>136</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>136</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>136</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>136</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>136</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>136</v>
@@ -3860,1795 +3860,1795 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="C228" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C239" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C244" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C250" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C255" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C263" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="C275" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C280" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="C291" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C296" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="C300" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C305" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C310" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C315" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="C316" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="C330" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="524">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,6 +1619,506 @@
   </si>
   <si>
     <t>harm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soothe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moderate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완화하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redeem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보충하다, 보완하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accelerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속화하다, 촉진하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reckon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산하다, 추정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고하다, 충고하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admonish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forewarn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chastise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chasten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처벌하다, 벌하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mimic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모방하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>injure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derogate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traumatize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blemish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손상시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규제하다, 통제하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영향을 미치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impromptu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extempore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉흥적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unofficial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>causual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공식의, 평상복의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luxurious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opulent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extravagant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumptuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사치스러운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehearse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maneuver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습하다, 연습시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brush aside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disregard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무시하다, 일축하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endorse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand up for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elucidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illuminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명하다, 해명하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legitimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legitimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanctify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statutory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정당화하다, 합법화하다, 합법의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2008,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C389" sqref="C389:C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5651,6 +6151,1139 @@
         <v>342</v>
       </c>
     </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/학습자료/단답형/영어_유의어.xlsx
+++ b/학습자료/단답형/영어_유의어.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="586">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2119,6 +2119,254 @@
   </si>
   <si>
     <t>정당화하다, 합법화하다, 합법의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discriminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demarcate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별하다, 구별하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toughen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heighten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggrandize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undermine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attenuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forsake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outstand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈에 띄다, 인상적이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overwhelm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devastate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dominate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predominate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압도하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙담시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanguine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙관적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coercive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complementary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보충의, 보충하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplementary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redeeming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2508,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C389" sqref="C389:C433"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C434" sqref="C434:C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7284,6 +7532,567 @@
         <v>473</v>
       </c>
     </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
